--- a/medicine/Psychotrope/Cap_d'Ona_(Bière)/Cap_d'Ona_(Bière).xlsx
+++ b/medicine/Psychotrope/Cap_d'Ona_(Bière)/Cap_d'Ona_(Bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cap_d%27Ona_(Bi%C3%A8re)</t>
+          <t>Cap_d'Ona_(Bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Brasserie Cap d'Ona d'Argelès fut fondée en 1998 par Grégor Engler et son épouse Élodie Pujol[1],[2].
-Leurs produits ont commencé à concourir dans les World Beer Awards à partir du 2016, en devenant une des plus récompensé du monde et en obtenant ainsi de nombreux prix internationaux, dont huit médailles d'or au World beer challenge de 2018, sa brune de seigle de Cerdagne, élue la meilleure du monde au Beer Award 2020, sa bière Barley, de seigle, comme meilleur “Barley wine” du monde au Brussels Beer Challenge de 2020, et sa Wood Aged Impériale Stout a obtenu une note de 100 sur 100 au concours World Beer Challenge 2021, en se classant comme la meilleure bière du monde[1],[3],[4].
-Pour chaque litre de bière avec des parfums du fruit local, l'entreprise utilise l'équivalent à un kilogramme de fruit écologique ramassée à maturité par une dizaine de producteurs nord-catalans, representant le 90% du coût de la bière[5]. Actuellement ils font 30 variétés de bière, la majorité Bio.
-La brasserie a ouvert dans 2018 un restaurant à côté de la brasserie, afin de proposer des repas élaborés uniquement avec des produits locaux, tous des Albères, tous à base de bière, de l'entrée aux desserts. Les déchets de la bière, riche en protéine, dans des minerais et fibre deviennent l'ingrédient pour faire le pain du four qu'ils servent au restaurant, et même gâteaux, et aussi se donne à des éleveurs locaux de viande et lait pour nourriture des animaux, qui servent la viande du restaurant[6],[5].
-Les bières de la brasserie se retrouvent sur des tables étoilées de Tokyo et New York[2].
-La brasserie annonce ouvrir un nouveau centre de brassage à l'occasion de son 25e anniversaire à Céret[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Brasserie Cap d'Ona d'Argelès fut fondée en 1998 par Grégor Engler et son épouse Élodie Pujol,.
+Leurs produits ont commencé à concourir dans les World Beer Awards à partir du 2016, en devenant une des plus récompensé du monde et en obtenant ainsi de nombreux prix internationaux, dont huit médailles d'or au World beer challenge de 2018, sa brune de seigle de Cerdagne, élue la meilleure du monde au Beer Award 2020, sa bière Barley, de seigle, comme meilleur “Barley wine” du monde au Brussels Beer Challenge de 2020, et sa Wood Aged Impériale Stout a obtenu une note de 100 sur 100 au concours World Beer Challenge 2021, en se classant comme la meilleure bière du monde.
+Pour chaque litre de bière avec des parfums du fruit local, l'entreprise utilise l'équivalent à un kilogramme de fruit écologique ramassée à maturité par une dizaine de producteurs nord-catalans, representant le 90% du coût de la bière. Actuellement ils font 30 variétés de bière, la majorité Bio.
+La brasserie a ouvert dans 2018 un restaurant à côté de la brasserie, afin de proposer des repas élaborés uniquement avec des produits locaux, tous des Albères, tous à base de bière, de l'entrée aux desserts. Les déchets de la bière, riche en protéine, dans des minerais et fibre deviennent l'ingrédient pour faire le pain du four qu'ils servent au restaurant, et même gâteaux, et aussi se donne à des éleveurs locaux de viande et lait pour nourriture des animaux, qui servent la viande du restaurant,.
+Les bières de la brasserie se retrouvent sur des tables étoilées de Tokyo et New York.
+La brasserie annonce ouvrir un nouveau centre de brassage à l'occasion de son 25e anniversaire à Céret.
 </t>
         </is>
       </c>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cap_d%27Ona_(Bi%C3%A8re)</t>
+          <t>Cap_d'Ona_(Bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,9 +528,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La Brasserie est notamment célèbre pour les nombreux prix reçus au cours de son existence. Entre 2021 et 2024, la brasserie a reçu 100 médailles dont[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La Brasserie est notamment célèbre pour les nombreux prix reçus au cours de son existence. Entre 2021 et 2024, la brasserie a reçu 100 médailles dont :
 prix de la révélation française,
 meilleure bière d'orge,
 meilleure bière d’hiver,
